--- a/import/Formatsiswa.xlsx
+++ b/import/Formatsiswa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sma2\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ponpes\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99805ADF-742E-4BC9-A79E-67E5C4C1A150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="208"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Nama</t>
   </si>
@@ -53,15 +54,36 @@
   <si>
     <t>Asal Sekolah</t>
   </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>Irvan</t>
+  </si>
+  <si>
+    <t>ANAK FF</t>
+  </si>
+  <si>
+    <t>Laki Laki</t>
+  </si>
+  <si>
+    <t>Jepara</t>
+  </si>
+  <si>
+    <t>irvan@gmail.com</t>
+  </si>
+  <si>
+    <t>SMK Jepara</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -73,6 +95,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,10 +147,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,8 +161,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L442"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G333"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -429,7 +461,7 @@
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="27.42578125" customWidth="1"/>
@@ -473,11 +505,47 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="A2">
+        <v>11188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3">
+        <v>37318</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>12312312</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G3" s="3"/>
@@ -2239,8 +2307,11 @@
       <c r="G442" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{955B29F4-DB90-4B0C-988C-7D1D727C5F52}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
